--- a/src/test/resources/TestData/Vicks/VicksTestData.xlsx
+++ b/src/test/resources/TestData/Vicks/VicksTestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA7381A-9EC9-4FD3-9CAC-8F0B7EC00C40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DD33A4-B665-4438-A7CE-9DCBD00F9600}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23100" windowHeight="10320" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>UserName</t>
   </si>
@@ -227,6 +227,21 @@
   </si>
   <si>
     <t>Vicks Warm Mist Humidifier</t>
+  </si>
+  <si>
+    <t>OrderReturs</t>
+  </si>
+  <si>
+    <t>OrderID</t>
+  </si>
+  <si>
+    <t>BillingLastName</t>
+  </si>
+  <si>
+    <t>Rao</t>
+  </si>
+  <si>
+    <t>varaprasad.raikanti@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -581,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,9 +621,12 @@
     <col min="21" max="21" width="29" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -678,8 +696,17 @@
       <c r="W1" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -701,7 +728,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -728,7 +755,7 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -749,7 +776,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -783,7 +810,7 @@
         <v>8500563032</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -809,7 +836,7 @@
         <v>9998999999</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -824,7 +851,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -848,7 +875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -870,7 +897,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -878,7 +905,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -899,7 +926,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -919,7 +946,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -939,12 +966,26 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>67</v>
       </c>
       <c r="G14" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="X15">
+        <v>4000000021</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -961,8 +1002,9 @@
     <hyperlink ref="C9" r:id="rId10" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="B9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="F9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="Z15" r:id="rId13" xr:uid="{DC66C6E8-3D9E-4758-A859-136822037D4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/Vicks/VicksTestData.xlsx
+++ b/src/test/resources/TestData/Vicks/VicksTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DD33A4-B665-4438-A7CE-9DCBD00F9600}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4422407C-0958-4A7A-A860-E0FAB7A5F66C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23100" windowHeight="10320" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>UserName</t>
   </si>
@@ -226,9 +226,6 @@
     <t>productname</t>
   </si>
   <si>
-    <t>Vicks Warm Mist Humidifier</t>
-  </si>
-  <si>
     <t>OrderReturs</t>
   </si>
   <si>
@@ -242,6 +239,15 @@
   </si>
   <si>
     <t>varaprasad.raikanti@gmail.com</t>
+  </si>
+  <si>
+    <t>InvalidPaymentDetails</t>
+  </si>
+  <si>
+    <t>4444444444444449</t>
+  </si>
+  <si>
+    <t>Vicks Warm Steam Vaporizer</t>
   </si>
 </sst>
 </file>
@@ -596,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,6 +619,7 @@
     <col min="8" max="8" width="27.28515625" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -697,10 +704,10 @@
         <v>53</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>7</v>
@@ -739,6 +746,9 @@
       <c r="E3" t="s">
         <v>66</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="I3" t="s">
         <v>21</v>
       </c>
@@ -943,7 +953,7 @@
         <v>37</v>
       </c>
       <c r="R12">
-        <v>123</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -971,21 +981,41 @@
         <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X15">
         <v>4000000021</v>
       </c>
       <c r="Y15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Z15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>73</v>
+      </c>
+      <c r="N16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16">
+        <v>2025</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -1003,8 +1033,9 @@
     <hyperlink ref="B9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="F9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="Z15" r:id="rId13" xr:uid="{DC66C6E8-3D9E-4758-A859-136822037D4A}"/>
+    <hyperlink ref="F3" r:id="rId14" xr:uid="{39C1F3E1-3562-4C08-BD09-5985512E4C2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/Vicks/VicksTestData.xlsx
+++ b/src/test/resources/TestData/Vicks/VicksTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4422407C-0958-4A7A-A860-E0FAB7A5F66C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA4DCA6-5D4D-463C-BFDA-A36CC375798C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23100" windowHeight="10320" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="17145" windowHeight="7245" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -605,7 +605,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/Vicks/VicksTestData.xlsx
+++ b/src/test/resources/TestData/Vicks/VicksTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA4DCA6-5D4D-463C-BFDA-A36CC375798C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97048BFC-396A-4963-B767-559CBB5FF2A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="17145" windowHeight="7245" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/Vicks/VicksTestData.xlsx
+++ b/src/test/resources/TestData/Vicks/VicksTestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cent_avayugundla\Pictures\HoT-digital\src\test\resources\TestData\Vicks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cent_avayugundla\Documents\BVT\HoT-digital\src\test\resources\TestData\Vicks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768AC3B9-F269-4CC5-8881-DE8065E1128D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA84FBA-2CEF-459D-8E44-9FA4222CA193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12000" xr2:uid="{6632055E-F00D-4BCF-9FB6-5BE8B9EEFE1F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="148">
   <si>
     <t>DataSet</t>
   </si>
@@ -162,9 +162,6 @@
     <t>ShippingAddress</t>
   </si>
   <si>
-    <t>yoga.manoj6@gmail.com</t>
-  </si>
-  <si>
     <t>LotusWave</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
     <t>FooterLinks</t>
   </si>
   <si>
-    <t>Sinus Inhaler,Thermometers,Filters &amp; Accessories</t>
-  </si>
-  <si>
     <t>Heleoftroy</t>
   </si>
   <si>
@@ -384,12 +378,6 @@
     <t>AdminLogins</t>
   </si>
   <si>
-    <t>manoj</t>
-  </si>
-  <si>
-    <t>I38@pAir8M</t>
-  </si>
-  <si>
     <t>Error</t>
   </si>
   <si>
@@ -445,13 +433,49 @@
   </si>
   <si>
     <t>Billing Issue</t>
+  </si>
+  <si>
+    <t>suvarchala</t>
+  </si>
+  <si>
+    <t>3Z9R773R25</t>
+  </si>
+  <si>
+    <t>SalesMenu</t>
+  </si>
+  <si>
+    <t>Megamenu</t>
+  </si>
+  <si>
+    <t>Orders,Invoices,Shipments,Credit Memos,Returns,Billing Agreements,Manual Import,Execution Log,Import Profiles,Import Sources</t>
+  </si>
+  <si>
+    <t>Products,Categories</t>
+  </si>
+  <si>
+    <t>CatalogMenu</t>
+  </si>
+  <si>
+    <t>ajitvv8@gmail.com</t>
+  </si>
+  <si>
+    <t>Bundleproduct</t>
+  </si>
+  <si>
+    <t>Humidifier and Waterless Vaporizer Test Bundle</t>
+  </si>
+  <si>
+    <t>V1200-6-VV1 (VICKS ELECTRIC STEAM INHALER)</t>
+  </si>
+  <si>
+    <t>Humidifiers &amp; Vaporizers,Sinus Inhaler,Thermometers,Filters &amp; Accessories</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +547,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -557,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -590,6 +620,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -905,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD5157E-5E25-478E-8C85-BEF4818B37AA}">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AP7" sqref="AP7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -919,7 +952,7 @@
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="76.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="83.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
@@ -949,9 +982,10 @@
     <col min="37" max="37" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="120.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,31 +1083,34 @@
         <v>31</v>
       </c>
       <c r="AG1" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+        <v>134</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -1115,7 +1152,7 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:41">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
@@ -1128,21 +1165,21 @@
         <v>36</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O3" s="8">
         <v>5732</v>
@@ -1163,7 +1200,7 @@
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:41">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -1205,7 +1242,7 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:41">
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
@@ -1218,29 +1255,29 @@
         <v>36</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" s="5">
         <v>6492</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
@@ -1255,9 +1292,9 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:41">
       <c r="A6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1273,7 +1310,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>39</v>
@@ -1286,7 +1323,7 @@
         <v>46008</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
@@ -1301,18 +1338,18 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:41">
       <c r="A7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="F7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1337,18 +1374,18 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:41">
       <c r="A8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1366,40 +1403,40 @@
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="X8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="W8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="X8" s="5" t="s">
+      <c r="Y8" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="12"/>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:41">
       <c r="A9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -1424,7 +1461,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:41">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1456,9 +1493,9 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:41">
       <c r="A11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
@@ -1476,10 +1513,10 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R11" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="S11" s="8">
         <v>2025</v>
@@ -1498,9 +1535,9 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:41">
       <c r="A12" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1518,10 +1555,10 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="S12" s="8">
         <v>2025</v>
@@ -1540,9 +1577,9 @@
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:41">
       <c r="A13" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1560,10 +1597,10 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R13" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="R13" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="S13" s="8">
         <v>2025</v>
@@ -1582,7 +1619,7 @@
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:41">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -1592,7 +1629,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1616,22 +1653,22 @@
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AJ14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK14" t="s">
         <v>109</v>
       </c>
-      <c r="AK14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1654,15 +1691,15 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AB15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" s="5" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
-      <c r="A16" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1702,9 +1739,9 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1718,7 +1755,7 @@
         <v>33</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1726,7 +1763,7 @@
         <v>38</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>39</v>
@@ -1739,7 +1776,7 @@
         <v>46008</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="10"/>
@@ -1760,10 +1797,10 @@
         <v>123456</v>
       </c>
       <c r="AM17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
@@ -1792,142 +1829,142 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB18" s="5"/>
+    </row>
+    <row r="19" spans="1:41">
+      <c r="A19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AA18" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB18" s="5"/>
-    </row>
-    <row r="19" spans="1:40">
-      <c r="A19" s="5" t="s">
+      <c r="D19" t="s">
         <v>83</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>84</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L19" t="s">
         <v>39</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O19">
         <v>12345</v>
       </c>
       <c r="P19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC19" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AA19" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC19" s="12" t="s">
+      <c r="AD19" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE19" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD19" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE19" s="16" t="s">
+      <c r="AN19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
+      <c r="A20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AN19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40">
-      <c r="A20" s="5" t="s">
+      <c r="G20" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:41">
+      <c r="A21" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G21" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:40">
-      <c r="A21" s="5" t="s">
+      <c r="H21" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="15" t="s">
+    </row>
+    <row r="22" spans="1:41">
+      <c r="A22" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="G22" s="15" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="22" spans="1:40">
-      <c r="A22" s="5" t="s">
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:41">
+      <c r="A23" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:40">
-      <c r="A23" s="5" t="s">
+      <c r="AG23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
+      <c r="A24" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AG23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40">
-      <c r="A24" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="AH24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" ht="28.5" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:40" ht="28.5" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="G25" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AG25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41">
+      <c r="A26" s="5" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40">
-      <c r="A26" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="AI26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" spans="1:41">
       <c r="A27" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41">
       <c r="A28" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>35</v>
@@ -1936,92 +1973,116 @@
         <v>36</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O28" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="P28" s="9">
         <v>8500563032</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="E30" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="F30" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" t="s">
-        <v>124</v>
       </c>
       <c r="I30" s="18"/>
       <c r="K30" t="s">
+        <v>122</v>
+      </c>
+      <c r="L30" t="s">
+        <v>121</v>
+      </c>
+      <c r="N30" t="s">
+        <v>113</v>
+      </c>
+      <c r="O30" t="s">
         <v>126</v>
-      </c>
-      <c r="L30" t="s">
-        <v>125</v>
-      </c>
-      <c r="N30" t="s">
-        <v>115</v>
-      </c>
-      <c r="O30" t="s">
-        <v>130</v>
       </c>
       <c r="P30">
         <v>98562</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41">
+      <c r="A32" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41">
+      <c r="A33" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41">
+      <c r="A34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{5DE95649-C50E-4B09-991A-D3F310028020}"/>
-    <hyperlink ref="F5" r:id="rId2" display="mailto:yoga.manoj6@gmail.com" xr:uid="{EC463563-1308-42C0-95FB-31C02C7AFDBB}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{EC463563-1308-42C0-95FB-31C02C7AFDBB}"/>
     <hyperlink ref="C7" r:id="rId3" display="mailto:Sravan@123" xr:uid="{DDD3BF3E-659F-4645-AEBC-AF419175709A}"/>
     <hyperlink ref="F7" r:id="rId4" display="mailto:Skchinna28@gmail.com" xr:uid="{DF7E0F6C-E0C0-450D-AC16-2E2FAACA034D}"/>
     <hyperlink ref="C8" r:id="rId5" display="mailto:oxopassword@1" xr:uid="{F0DA3A90-4DA6-45CD-B651-232B56C37BFA}"/>
@@ -2032,10 +2093,10 @@
     <hyperlink ref="F9" r:id="rId10" display="mailto:mahendr.selenium@gmail.com" xr:uid="{94C5C6E1-953E-4ACF-BC5E-8DC39FE86515}"/>
     <hyperlink ref="F19" r:id="rId11" xr:uid="{44F4BFCA-A16E-4A3C-9017-EAAE3BA9F728}"/>
     <hyperlink ref="F2" r:id="rId12" display="mailto:akhil.qatesting@gmail.com" xr:uid="{3DCDEDD4-00A6-45A3-8285-08E3C0699EB1}"/>
-    <hyperlink ref="F3" r:id="rId13" display="mailto:akhil.qatesting@gmail.com" xr:uid="{27DA7A2E-2789-42DC-8F0B-5B459A8D8569}"/>
+    <hyperlink ref="F3" r:id="rId13" xr:uid="{27DA7A2E-2789-42DC-8F0B-5B459A8D8569}"/>
     <hyperlink ref="F15" r:id="rId14" display="mailto:varaprasad.raikanti@gmail.com" xr:uid="{403FBE80-D52A-409E-B5D0-BCFD9E0C1AC0}"/>
     <hyperlink ref="B2" r:id="rId15" display="mailto:akhil.qatesting@gmail.com" xr:uid="{313742B2-F4FA-4C62-A0A1-908B004CF16E}"/>
-    <hyperlink ref="F28" r:id="rId16" display="mailto:akhil.qatesting@gmail.com" xr:uid="{29AF186F-7EF9-455A-824A-53904FDD3936}"/>
+    <hyperlink ref="F28" r:id="rId16" xr:uid="{29AF186F-7EF9-455A-824A-53904FDD3936}"/>
     <hyperlink ref="F31" r:id="rId17" display="ajitvv8@gmail.com" xr:uid="{6689493B-82EB-4FD2-845C-BFA48087B586}"/>
     <hyperlink ref="F17" r:id="rId18" display="mailto:akhil.qatesting@gmail.com" xr:uid="{5D7CA512-8D56-437E-85BC-57736E923A0D}"/>
   </hyperlinks>

--- a/src/test/resources/TestData/Vicks/VicksTestData.xlsx
+++ b/src/test/resources/TestData/Vicks/VicksTestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cent_avayugundla\Documents\BVT\HoT-digital\src\test\resources\TestData\Vicks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cent_avayugundla\Documents\git new code\HoT-digital\src\test\resources\TestData\Vicks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA84FBA-2CEF-459D-8E44-9FA4222CA193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175F32E7-A10B-44D4-B288-08DADE609616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12000" xr2:uid="{6632055E-F00D-4BCF-9FB6-5BE8B9EEFE1F}"/>
   </bookViews>
@@ -438,9 +438,6 @@
     <t>suvarchala</t>
   </si>
   <si>
-    <t>3Z9R773R25</t>
-  </si>
-  <si>
     <t>SalesMenu</t>
   </si>
   <si>
@@ -469,6 +466,9 @@
   </si>
   <si>
     <t>Humidifiers &amp; Vaporizers,Sinus Inhaler,Thermometers,Filters &amp; Accessories</t>
+  </si>
+  <si>
+    <t>3Z9R773R26</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD5157E-5E25-478E-8C85-BEF4818B37AA}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1107,7 +1107,7 @@
         <v>134</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:41">
@@ -1165,7 +1165,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1255,7 +1255,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -1723,13 +1723,13 @@
         <v>42</v>
       </c>
       <c r="S16" s="8">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="T16" s="5" t="s">
         <v>43</v>
       </c>
       <c r="U16" s="8">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
@@ -1755,7 +1755,7 @@
         <v>33</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1895,7 +1895,7 @@
         <v>92</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H20" s="15"/>
     </row>
@@ -1973,7 +1973,7 @@
         <v>36</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2004,7 +2004,7 @@
         <v>136</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -2057,26 +2057,26 @@
     </row>
     <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AO32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AO33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:41">
       <c r="A34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="22" t="s">
         <v>144</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
